--- a/data/hotels_by_city/Houston/Houston_shard_130.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_130.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223141-Reviews-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,753 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r519148568-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223141</t>
+  </si>
+  <si>
+    <t>519148568</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>AWESOME STAY DURING HARVEY</t>
+  </si>
+  <si>
+    <t>We had to evacuate during Hurricane Harvey! I was here on business and never dreamed i would need to stay over a week!  The staff was very comforting and helpful during this stressful time. The hotel stayed high and dry!! I will always be thankful I found this place of refuge in a time of need. The staff was especially helpful, kind and caring! Antonette, Charles &amp; all the staff became our family! They all went beyond the call by staying on the premise around the clock so that all of the guests were taken care of. I have never seen a staff so dedicated in helping others!!  I GIVE THIS HOTEL 5++++ RATING!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>We had to evacuate during Hurricane Harvey! I was here on business and never dreamed i would need to stay over a week!  The staff was very comforting and helpful during this stressful time. The hotel stayed high and dry!! I will always be thankful I found this place of refuge in a time of need. The staff was especially helpful, kind and caring! Antonette, Charles &amp; all the staff became our family! They all went beyond the call by staying on the premise around the clock so that all of the guests were taken care of. I have never seen a staff so dedicated in helping others!!  I GIVE THIS HOTEL 5++++ RATING!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r510983132-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510983132</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Average mid range facility</t>
+  </si>
+  <si>
+    <t>The location is excellent just a block south of Westheimer on the edge of the desirable Westchase district.  The lobby is attractive and staff is friendly.Breakfast buffet is very limited and we skipped it unless we were in a hurry.Room was large and well appointed but came complete with an undesirable element, roaches.We won't being "scurrying" back to our new "friends" in the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r508872611-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508872611</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>IMPROVE THE OFFICE CHAIR - OTHERWISE GREAT</t>
+  </si>
+  <si>
+    <t>This hotel has many things going for it: 1) Great location in the Westchase District of Houston; 2) Reasonably priced rooms; 3) Great appearance from the outside; 4) Good looking foyer and lobby areas; 5) Very good breakfast; 6) Well maintained and clean rooms. My wife and I stayed two nights and were treated extremely well by all employees, especially Brithney. The only real downer was the condition of the office chair which appeared to have had its arms chewed on by some animal - perhaps a dog? We do HIGHLY recommend this hotel as it is one of the better in the Choice Hotel chain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r485255385-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485255385</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Texas with no Biscuits &amp; Gravy?</t>
+  </si>
+  <si>
+    <t>This hotel is reasonably priced but it does have to upgrade its breakfast.  This is a property that just puts out the minimum to say it serves a hot breakfast.  It had the standard scrambled eggs which are probably not real eggs and a ground meat patty which few people eat.  Biscuits &amp; gravy did not exist.  No bananas and no low fat yogurt.  In fact, there was NO yogurt.  The breakfast person needs to speak up to the manager when items are out.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r468418936-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468418936</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Don't talk to me</t>
+  </si>
+  <si>
+    <t>There's a reason a hotel this size has many vacancies #thestaff...Generally I'm a friendly person and love to be friendly with everyone.  But the lady at the front desk seemed as if she didn't want me to talk to her.  She didn't mind talking to other guests but when I spoke to her she quickly ended the conversation.  I feel like I was being watched by the staff instead of greeted as a guest.  I believe the staff at this hotel is the reason there are vacancies.  If you don't treat every guest with courtesy then the won't want to patronize your business and yiu won't have a job.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>siaram, Manager at Comfort Suites Westchase, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>There's a reason a hotel this size has many vacancies #thestaff...Generally I'm a friendly person and love to be friendly with everyone.  But the lady at the front desk seemed as if she didn't want me to talk to her.  She didn't mind talking to other guests but when I spoke to her she quickly ended the conversation.  I feel like I was being watched by the staff instead of greeted as a guest.  I believe the staff at this hotel is the reason there are vacancies.  If you don't treat every guest with courtesy then the won't want to patronize your business and yiu won't have a job.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r428952011-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428952011</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Exceeding my expectations</t>
+  </si>
+  <si>
+    <t>I needed to have quiet and restful nights for a couple of days. I booked on cooperate program. It was the least rate offer. Turned out to be spacious, clean and comfortable room. I was very happy with my stay. Next time again I'll definitely stay there.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r426228930-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426228930</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Couldn't be happier with our stay</t>
+  </si>
+  <si>
+    <t>We had a block of rooms for 14 people.  Joy was a huge help reserving the block of rooms, finding us a restaurant close by to host a dinner for 20 and making sure everything was set before we arrived.  Location was perfect for our needs. Rooms were clean and comfortable. Hot breakfast was great to have as both mornings we had to be at meetings early.  Antoinette and Charles were great to work with when we got there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r425645953-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425645953</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Home from home</t>
+  </si>
+  <si>
+    <t>Have always stayed at this hotel on my visits to Houston for more than ten years now. Manager and staff always very helpful.Great location walking distance from several good restaurants and bars.Rooms well appointed and clean.Breakfast is acceptable and varied.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r423354277-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423354277</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Friendly, helpful staff in a great location.</t>
+  </si>
+  <si>
+    <t>The room was spacious and comfortable. Good Wi-Fi connection. The breakfast was great. The staff very friendly and helpful. The location is near highway access with some shopping and eateries in easy traveling distance many within walking distance. The price is very affordable.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r365874393-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365874393</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Nice affordable hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything was good. The room was big, nice and clean. The staff were so friendly and nice. The price is also affordable. wifi, big flat screen tv and good break fast are plus. I would book this hotel again if i come back to Houston some day. :-) </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r365289548-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365289548</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Basic hotel</t>
+  </si>
+  <si>
+    <t>It is located at business area which hotel is basic. the room are large which you can fit in a family of 4 , breakfast is basic but enough. There is a supermarket just opposite the hotel and place to eat is just across the road.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r361807298-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361807298</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Clean Spacious Room in Westchase</t>
+  </si>
+  <si>
+    <t>The hotel and room was very clean and quiet. There is a Whole Foods right next door which was great. The only downside is its 15+ miles from the city center. I was there for the Final Four and had to use Uber to get around. Houston has terrible public transportation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r304815618-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304815618</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>The best, most cost effective option in Westchase</t>
+  </si>
+  <si>
+    <t>The comfort suites in Westchase is one of the most cost effective hotels in the district. The hotel is a good quality place in the heart of the area. Most hotels nearby will run you double the price per night of this hotel. The rooms are actually mini-suites so there is no stove. There is a microwave, small refrigerator and a coffee maker in each room. The beds are very comfortable and I slept like a baby. Showers have good pressure but there is no non-slip protection in place which is a slight negative. The wifi is good but not quite good enough for HD video streaming without some buffering. Breakfast is the standard choice hotels affair. Biscuits and gravey, sausage, eggs and cereal make up the primary components. The hotel staff are all very friendly and helpful and willing to help you out if you need assistance. Final thought: For the price, it's a hard place to top.MoreShow less</t>
+  </si>
+  <si>
+    <t>The comfort suites in Westchase is one of the most cost effective hotels in the district. The hotel is a good quality place in the heart of the area. Most hotels nearby will run you double the price per night of this hotel. The rooms are actually mini-suites so there is no stove. There is a microwave, small refrigerator and a coffee maker in each room. The beds are very comfortable and I slept like a baby. Showers have good pressure but there is no non-slip protection in place which is a slight negative. The wifi is good but not quite good enough for HD video streaming without some buffering. Breakfast is the standard choice hotels affair. Biscuits and gravey, sausage, eggs and cereal make up the primary components. The hotel staff are all very friendly and helpful and willing to help you out if you need assistance. Final thought: For the price, it's a hard place to top.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r299871687-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299871687</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Beware of no bath slip mats</t>
+  </si>
+  <si>
+    <t>Had no issue with staying back in Novemeber 2014 as staff were pleasant and rooms clean and well kept. Until......I slipped in the bath while having a shower. The bath had very little anti-slip. Can only assume the anti slip stickers were old.  When my partner advised reception about my accident they were not interested in supplying an alternate mat nor replacing the stickers. Said there wasn't any so they could not do anything about it. Highly unusual given American standards!!Therefore, please check when in the bath as the experience we took from this hotel is that it does not see the health and safety of it's guests as a priority.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Had no issue with staying back in Novemeber 2014 as staff were pleasant and rooms clean and well kept. Until......I slipped in the bath while having a shower. The bath had very little anti-slip. Can only assume the anti slip stickers were old.  When my partner advised reception about my accident they were not interested in supplying an alternate mat nor replacing the stickers. Said there wasn't any so they could not do anything about it. Highly unusual given American standards!!Therefore, please check when in the bath as the experience we took from this hotel is that it does not see the health and safety of it's guests as a priority.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r283343633-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283343633</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice place, the room is so big and clean, no nasty odor and there is a pool and a hot tub to help for  hydration because Houston is very hot. The food is great, staffs are friendly and amazing, environment is clean, the city is hot, and the price is great... I love it </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r271472876-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271472876</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and Peaceful</t>
+  </si>
+  <si>
+    <t>This hotel is near the Energy Corridor in Houston. It is very comfortable and peaceful and is less crowded than other hotels around. Room rent is reasonable in comparison to other hotels around. Breakfast is included in room rent. But, choices are limited and could have been much better. Rooms are quite big and are equipped with writing table, sofa, closet, free tea/coffee etc. High speed wifi is available in rooms. The hotel does not have in-house restaurant for lunch or dinner. There are many good restaurants nearby for lunch or dinner. The fitness room is very small and can accommodate only 3 persons at a time. Overall, this hotel is good value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This hotel is near the Energy Corridor in Houston. It is very comfortable and peaceful and is less crowded than other hotels around. Room rent is reasonable in comparison to other hotels around. Breakfast is included in room rent. But, choices are limited and could have been much better. Rooms are quite big and are equipped with writing table, sofa, closet, free tea/coffee etc. High speed wifi is available in rooms. The hotel does not have in-house restaurant for lunch or dinner. There are many good restaurants nearby for lunch or dinner. The fitness room is very small and can accommodate only 3 persons at a time. Overall, this hotel is good value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r260444394-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260444394</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Good hotel.</t>
+  </si>
+  <si>
+    <t>There are fitness room and business room and laundry room.You can use most of all facilities about that kinds of amenity.There also are restauraunt nearby around that area.It takes around an hour and ～100USD from airport.Staffs were very friendly and kind.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r256986130-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256986130</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>Clean, welcoming &amp; efficient</t>
+  </si>
+  <si>
+    <t>First trip to Houston so not sure of exactly where to book. This hotel is 35 mins from the airport but ideally situated if you have business in the west side of the city.Room was clean, well maintained each day and in spite of other reviewers detrimental comments the wifi was fine, breakfast was unhurried and the front desk staff immaculate in their behaviour.Will stay here again because:Whole Foods market is 50 metres away offering a huge variety of great produce and has the added advantage ( for a solo business traveller) of a small bar/cafe area to eat in.Cantina Laredo is also 50 metres walking distance offering excellent service ( see separate revue) as well as great food and wines.Wifi was excellentParking was free and easyMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>First trip to Houston so not sure of exactly where to book. This hotel is 35 mins from the airport but ideally situated if you have business in the west side of the city.Room was clean, well maintained each day and in spite of other reviewers detrimental comments the wifi was fine, breakfast was unhurried and the front desk staff immaculate in their behaviour.Will stay here again because:Whole Foods market is 50 metres away offering a huge variety of great produce and has the added advantage ( for a solo business traveller) of a small bar/cafe area to eat in.Cantina Laredo is also 50 metres walking distance offering excellent service ( see separate revue) as well as great food and wines.Wifi was excellentParking was free and easyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r203197257-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203197257</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>As always, review &amp; rating are just for the room I stayed in, (#115) plus any other common areas..  Check-in was speedy and uneventful.  Hotel room was a suite style room with two queen beds and a twin sized couch (looked like a sleeper bed too).  Room was nice and about what to expect at this price point.  TV was flat panel, Internet was fine and overall the place seemed nice and clean.  Breakfast was typical continental affair with make your own waffles and sausage/eggs pre-made and served in a chrome warmer.  Again, typical for a hotel like this.  We picked a weekend that was not crowded, so parking was never a problem.  W did not try the little pool, but it looked nice as I drove by.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>siaram, Manager at Comfort Suites Westchase, responded to this reviewResponded June 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2014</t>
+  </si>
+  <si>
+    <t>As always, review &amp; rating are just for the room I stayed in, (#115) plus any other common areas..  Check-in was speedy and uneventful.  Hotel room was a suite style room with two queen beds and a twin sized couch (looked like a sleeper bed too).  Room was nice and about what to expect at this price point.  TV was flat panel, Internet was fine and overall the place seemed nice and clean.  Breakfast was typical continental affair with make your own waffles and sausage/eggs pre-made and served in a chrome warmer.  Again, typical for a hotel like this.  We picked a weekend that was not crowded, so parking was never a problem.  W did not try the little pool, but it looked nice as I drove by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r185022275-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185022275</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>worst service I have ever had in a hotel choice hotels</t>
+  </si>
+  <si>
+    <t>I  stayed there for 2 nights, first night good. Second night I was coming back from a run and accidentally touched a female  whom i apologized to and she tried to call the police and press charges against me.. I am a platinum member of choice and the employee who did not witness this event took the side of the customer and told me it would be best if i left the hotel after I already paid for the room. I called corporate and told them and all they offered was a letter of apology. I have been a platinum member of choice for over 5 years. THEY HAVE LOST MY BUSINESS FOR GOODMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>siaram, General Manager at Comfort Suites Westchase, responded to this reviewResponded December 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2013</t>
+  </si>
+  <si>
+    <t>I  stayed there for 2 nights, first night good. Second night I was coming back from a run and accidentally touched a female  whom i apologized to and she tried to call the police and press charges against me.. I am a platinum member of choice and the employee who did not witness this event took the side of the customer and told me it would be best if i left the hotel after I already paid for the room. I called corporate and told them and all they offered was a letter of apology. I have been a platinum member of choice for over 5 years. THEY HAVE LOST MY BUSINESS FOR GOODMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r185017767-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185017767</t>
+  </si>
+  <si>
+    <t>How to find</t>
+  </si>
+  <si>
+    <t>Liked the reviews posted here and have stayed at Comfort Suites before.(Relatives live nearby.)  Room was spacious, service good, breakfast the usual, not very busy. No compliants. In their publicity they mention Westheimer because that is very busy east/.west street and easy to find, but their address is on Wilcrest, north/south street. It might sound as if it is on the corner. Is not. Although in first block south on Wilcrest not very visible from Westheimer. About a half-mile from Sam Houston Parkway toll. Took me about an hour to get from hotel to airport on a Monday morning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r169234844-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169234844</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Comfortable Room, Good Location</t>
+  </si>
+  <si>
+    <t>I stayed for one night at this hotel for business travel.  Overall I was quite pleased with the Comfort Suites Westchase, especially compared to similar hotels I have frequented in the Westchase area.The room was nice, love the fridge, microwave and flat screen TV.  I got a good night's sleep and the wifi worked quite well.   The hotel was conveniently located near restaurants, stores, etc.    It was a disappointment that the breakfast was over at 9:00 am, would have been nice to be open longer for late sleepers.  I was traveling for business travel and was very frustrated when ironing my clothes.  There was a weird setup where the iron was corded and locked to the bottom of the ironing board which made it nearly impossible to iron part of my dress shirt or slacks.  Maybe they are having a lot of iron thieves staying at their hotel.  No, just weird.But I will stay at the hotel next time I am in this part of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>siaram, General Manager at Comfort Suites Westchase, responded to this reviewResponded September 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2013</t>
+  </si>
+  <si>
+    <t>I stayed for one night at this hotel for business travel.  Overall I was quite pleased with the Comfort Suites Westchase, especially compared to similar hotels I have frequented in the Westchase area.The room was nice, love the fridge, microwave and flat screen TV.  I got a good night's sleep and the wifi worked quite well.   The hotel was conveniently located near restaurants, stores, etc.    It was a disappointment that the breakfast was over at 9:00 am, would have been nice to be open longer for late sleepers.  I was traveling for business travel and was very frustrated when ironing my clothes.  There was a weird setup where the iron was corded and locked to the bottom of the ironing board which made it nearly impossible to iron part of my dress shirt or slacks.  Maybe they are having a lot of iron thieves staying at their hotel.  No, just weird.But I will stay at the hotel next time I am in this part of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r169232820-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169232820</t>
+  </si>
+  <si>
+    <t>Great Stay at Comfort Suites</t>
+  </si>
+  <si>
+    <t>I moved here from the Quality Suites, after one night.  What a treat!  It was so much nicer!  The rooms were great and the staff was customer oriented.  The location is good too.  Lots of shopping and restaurants nearby.  It was only $5 more per night but WELL worth it!MoreShow less</t>
+  </si>
+  <si>
+    <t>I moved here from the Quality Suites, after one night.  What a treat!  It was so much nicer!  The rooms were great and the staff was customer oriented.  The location is good too.  Lots of shopping and restaurants nearby.  It was only $5 more per night but WELL worth it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r166733069-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166733069</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for one night.  Loved the spacious clean room.  It was equipped with microwave, fridge, love seat and flat screen hd tv guessing around 42".  Staff was very friendly.  Plenty of very nice restaurants near the hotel.  I strongly recommend this hotel, great value for the money.  Ive stayed at plenty of comfort hotels &amp; this would be one of the better ones Ive been at. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r154388154-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154388154</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay in Westchase</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed here several time over the past three years when we visit our son.  Place is consistently clean and comfortable with polite, helpful desk staff.  The breakfast is a cut above, and there are several good stores and restaurants in easy walking distance.  Will continue to stay here when we visit Houston.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r150441624-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150441624</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Good location &amp; One of the Better Comfort Suites</t>
+  </si>
+  <si>
+    <t>Very friendly staff, large clean entrance/reception area. Reception was exceptionally helpful &amp; a great advert for the hotel.Room was good size &amp; condition with the only exception being that the bathroom needed updating &amp; maintenance there was lots of grout missing altogether on the floor tiles &amp; lots of sealant repairs around the shower area.....this unfortunately let down what was otherwise an excellent example of the Choice Privileges group of hotels.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r146480515-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146480515</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Great Nights Sleep</t>
+  </si>
+  <si>
+    <t>Stayed at this Comfort Suite for the second time this month and must say round two was as good as round one! Rooms are exceptionally clean, beds comfy, staff friendly plus the free hot breakfast ain't bad either. Amenities around the area are good, next to Whole Foods store and quite a few restaurants. Overall good value for money and good location.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r131135627-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131135627</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>Breakfast is Lacking</t>
+  </si>
+  <si>
+    <t>Powdered eggs. While I can appreciate a free breakfast at a hotel chain, I don't like powdered eggs. It's not that hard to make eggs. They were out of a staple item-butter.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r129426359-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129426359</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>No maintenance</t>
+  </si>
+  <si>
+    <t>The manager doesn't fix anything. Broken umbrellas, torn off key entries. Severely cracked pool deck. Non functioning spa. No liners in trash bags.But good breakfast, housekeeping and very nice staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r128446006-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128446006</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Convenient. Great value, but a little busy</t>
+  </si>
+  <si>
+    <t>Was looking for a suite hotel (with fridge and microwave so that I could refrigerate food and heat up as needed) close to the Westpark area - and this one was the closest. It was like a 10 min drive to the venue of my seminar, but that was ok. Breakfast was pretty good. The hotel was fairly busy, as each morning the small breakfast area could get crowded with guests. Suggest you shoot for breakfast earlier rather than later if you've got to be somewhere for a certain time. The room was quite comfortable and no issues. Complimentary internet - always a plus to stay in touch with work / family. I would stay again. It's just off Westheimer, so access to shops and restaurants is great. Needless to say rush hour is quite crowded.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Was looking for a suite hotel (with fridge and microwave so that I could refrigerate food and heat up as needed) close to the Westpark area - and this one was the closest. It was like a 10 min drive to the venue of my seminar, but that was ok. Breakfast was pretty good. The hotel was fairly busy, as each morning the small breakfast area could get crowded with guests. Suggest you shoot for breakfast earlier rather than later if you've got to be somewhere for a certain time. The room was quite comfortable and no issues. Complimentary internet - always a plus to stay in touch with work / family. I would stay again. It's just off Westheimer, so access to shops and restaurants is great. Needless to say rush hour is quite crowded.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r75176268-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>75176268</t>
+  </si>
+  <si>
+    <t>08/14/2010</t>
+  </si>
+  <si>
+    <t>Nice property</t>
+  </si>
+  <si>
+    <t>My husband and I recently stayed at this hotel for him to attend a conference.  The property is very nice and clean.  Our room was ready upon arrival. The staff was very helpful and courteous. The breakfast was the typical Comfort Suites fare.  It was very well stocked. We had a King Suite which was a room with a divider.  The room had a refrigerator, microwave, sofa, desk and a 32 inch flat screen television. The hotel was located within walking distance of restaurants and a grocery store. The parking area was very secure.The only con I would have to say about this hotel would be the limited cable channels. I don't know if it was just our TV but some of the channels you could not hear even at thehighest level.  I have excellent hearing. You might want to check you TV upon arrival.If visiting this area of Houston again, I would definitely consider this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>My husband and I recently stayed at this hotel for him to attend a conference.  The property is very nice and clean.  Our room was ready upon arrival. The staff was very helpful and courteous. The breakfast was the typical Comfort Suites fare.  It was very well stocked. We had a King Suite which was a room with a divider.  The room had a refrigerator, microwave, sofa, desk and a 32 inch flat screen television. The hotel was located within walking distance of restaurants and a grocery store. The parking area was very secure.The only con I would have to say about this hotel would be the limited cable channels. I don't know if it was just our TV but some of the channels you could not hear even at thehighest level.  I have excellent hearing. You might want to check you TV upon arrival.If visiting this area of Houston again, I would definitely consider this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r58902175-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>58902175</t>
+  </si>
+  <si>
+    <t>03/18/2010</t>
+  </si>
+  <si>
+    <t>Comfortable and Clean</t>
+  </si>
+  <si>
+    <t>The hotel was classy looking and elegant (for this level of hotel).  I stayed in the nonsmoking king bed suite.  It was fresh smelling, clean and spacious.  The bed was comfortable as well.  The breakfast was the extended Choice Hotels' breakfast with many items to choose from.  The location was good for the nearby sporting event that my son participated in.  I will definately stay here again when wanting to stay in this part of Houston.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r54247645-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>54247645</t>
+  </si>
+  <si>
+    <t>01/24/2010</t>
+  </si>
+  <si>
+    <t>Non-Smoking &amp; Top Notch</t>
+  </si>
+  <si>
+    <t>Quiet location, friendly service, spacious rooms, very clean, remodeled bath, tastefully decorated, comfy sitting area, big desk &amp; office chair, micro &amp; fridge, great bed, quiet rooms,  large breakfast. SUPER place to stay.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r22370620-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22370620</t>
+  </si>
+  <si>
+    <t>12/02/2008</t>
+  </si>
+  <si>
+    <t>WONDERFUL stay, SUPERIOR value!</t>
+  </si>
+  <si>
+    <t>This property was selected due to its location being central to everything we had on our Thanksgiving agenda, namely, family and shopping.   It served all those functions and more, it is near to Rudi Lechner's Restaurant.  The finest German restaurant in the Southland.The property was recently remodeled and had NO issues to complain about.  The property was clean, well serviced by the staff and ALL of the staff were VERY friendly and went out of their way to insure our every request was satisfied as soon as was humanly possible.  We had booked rooms for ourself and family members, to a person they all commented on the wise decision I had made booking us int this hotel.  We WILL be back, every time we are in Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>This property was selected due to its location being central to everything we had on our Thanksgiving agenda, namely, family and shopping.   It served all those functions and more, it is near to Rudi Lechner's Restaurant.  The finest German restaurant in the Southland.The property was recently remodeled and had NO issues to complain about.  The property was clean, well serviced by the staff and ALL of the staff were VERY friendly and went out of their way to insure our every request was satisfied as soon as was humanly possible.  We had booked rooms for ourself and family members, to a person they all commented on the wise decision I had made booking us int this hotel.  We WILL be back, every time we are in Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r10038463-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10038463</t>
+  </si>
+  <si>
+    <t>10/04/2007</t>
+  </si>
+  <si>
+    <t>Great business hotel</t>
+  </si>
+  <si>
+    <t>My work often takes me to Houston and over the last couple of years I've stayed in a variety of chains, from Holiday Inn Express to Extended Stay to Candlewoods.On my last stay, I was placed in the Comfort Suites at Westchase (on the basis that it was near the Fox and the Hound!) and, on the whole, was happy with the selection and will be returning there for my next trip.The foyer is certainly impressive with a chandelier hanging down and a breakfast area, gym and business centre coming off it.  For a Brit it is quite novel to get breakfast in an American hotel (especially hot breakfast) so this was a pleasant surprise.The rooms/suites are very large (especially going by UK standards) and the separate kitchen &amp; sofa areas made it feel more like home.  The room itself had somewhat of a musty/damp smell and the air conditioning unit was easily the loudest i've ever heard but neither stopped me sleeping soundly.It is located at the end of a shopping centre but seemed quiet and safe.  Aside from the supermarket, the shops were of an unusual nature although we did have a great meal in a small Thai restaurant on the strip.Overall, a pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>My work often takes me to Houston and over the last couple of years I've stayed in a variety of chains, from Holiday Inn Express to Extended Stay to Candlewoods.On my last stay, I was placed in the Comfort Suites at Westchase (on the basis that it was near the Fox and the Hound!) and, on the whole, was happy with the selection and will be returning there for my next trip.The foyer is certainly impressive with a chandelier hanging down and a breakfast area, gym and business centre coming off it.  For a Brit it is quite novel to get breakfast in an American hotel (especially hot breakfast) so this was a pleasant surprise.The rooms/suites are very large (especially going by UK standards) and the separate kitchen &amp; sofa areas made it feel more like home.  The room itself had somewhat of a musty/damp smell and the air conditioning unit was easily the loudest i've ever heard but neither stopped me sleeping soundly.It is located at the end of a shopping centre but seemed quiet and safe.  Aside from the supermarket, the shops were of an unusual nature although we did have a great meal in a small Thai restaurant on the strip.Overall, a pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r8316395-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8316395</t>
+  </si>
+  <si>
+    <t>08/02/2007</t>
+  </si>
+  <si>
+    <t>24 Hour Cancellation Policy</t>
+  </si>
+  <si>
+    <t>I made reservations for Sunday Night and my flight was cancelled.  I called the hotel property direclty at 6pm from the airport.  I was informed about the 24 hour cancellation policy and was charged full price for my room.  Efforts to correct the billing went unsuccessful.  Be careful when booking this hotel especially if travel includes the airlines.</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r5436386-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5436386</t>
+  </si>
+  <si>
+    <t>07/06/2006</t>
+  </si>
+  <si>
+    <t>Wonderful Stay in Houston</t>
+  </si>
+  <si>
+    <t>This hotel was great!  It was very clean and very comfortable.  We stayed here for two nights and had no problems at all.  The staff was excellent on directions.  There was something different here also, they had a happy hour every evening from 5 - 7 pm with free drinks and snacks.  There was a wonderful gym and beautiful pool.  Our room was very spacious and comfortable and the whirlpool was very relaxing.  It was very easy to find and the parking lot was pretty big for a Houston hotel.  They have a business center there that you can use and it is sound proof so you can make calls, use the internet, etc.  Would stay there again and would definitely recommend this hotel to business travelers, couples, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was great!  It was very clean and very comfortable.  We stayed here for two nights and had no problems at all.  The staff was excellent on directions.  There was something different here also, they had a happy hour every evening from 5 - 7 pm with free drinks and snacks.  There was a wonderful gym and beautiful pool.  Our room was very spacious and comfortable and the whirlpool was very relaxing.  It was very easy to find and the parking lot was pretty big for a Houston hotel.  They have a business center there that you can use and it is sound proof so you can make calls, use the internet, etc.  Would stay there again and would definitely recommend this hotel to business travelers, couples, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r5233583-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5233583</t>
+  </si>
+  <si>
+    <t>05/28/2006</t>
+  </si>
+  <si>
+    <t>Comfortable and clean!</t>
+  </si>
+  <si>
+    <t>I used this hotel to accomodate family members for wedding.  It was reasonably priced, clean, and staff was friendly.  Location is convenient too, as there is a supermarket, and a Target nearby, which was great for family staying for longer period.  We also reallly enjoyed that they had complimentary breakfast!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r4939372-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4939372</t>
+  </si>
+  <si>
+    <t>04/04/2006</t>
+  </si>
+  <si>
+    <t>This hotel was tops!</t>
+  </si>
+  <si>
+    <t>Upon arrival, we were instantly impressed with the location (close to markets, retail and Starbucks!) and outside appearance (grounds).  The interior of the hotel is clean and well appointed.  We were instantly impressed with our room, which consisted of 2 double (queen? not sure) beds, a pullout sleeper (loveseat), a microwave and fridge.  Housekeeping personnel were friendly and accomodating when I asked for extra towels in the AM.  No complaints about the complete complementary b'fast.  The attendant kept the area clean and stocked.  Would certainly stay there again.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1288,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1320,2546 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>168</v>
+      </c>
+      <c r="X20" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>177</v>
+      </c>
+      <c r="X21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>190</v>
+      </c>
+      <c r="X23" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>190</v>
+      </c>
+      <c r="X24" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>239</v>
+      </c>
+      <c r="J32" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L32" t="s">
+        <v>242</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>243</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>250</v>
+      </c>
+      <c r="O33" t="s">
+        <v>88</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>262</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J36" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" t="s">
+        <v>267</v>
+      </c>
+      <c r="L36" t="s">
+        <v>268</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>269</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" t="s">
+        <v>274</v>
+      </c>
+      <c r="L37" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>276</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>289</v>
+      </c>
+      <c r="J40" t="s">
+        <v>290</v>
+      </c>
+      <c r="K40" t="s">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s">
+        <v>292</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_130.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_130.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="462">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r576701493-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223141</t>
+  </si>
+  <si>
+    <t>576701493</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>On a downward slope</t>
+  </si>
+  <si>
+    <t>Location is great making it a good location. Having stayed here many times over the past ten years, the hotel is now clearly on a downward slope. Stayed on the ground floor this time and the room has a bit of smell to it, the bathroom and fixtures are worn and the overall experience ends up at "so-so"</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r532168261-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532168261</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkin was professional, friendly and accommodating (I was several hours early). The room was nice, bed comfortable and plenty of outlets available from almost anywhere in the room. Breakfast was good. Mixture of hot and cold. Was surprised there was no yogurt. Only issue is with refrigerator/freezer. I put a small bottle of water in the freezer and 3 days later it was only half frozenWould definitely stay again. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r519148568-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223141</t>
-  </si>
-  <si>
     <t>519148568</t>
   </si>
   <si>
@@ -177,9 +219,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>We had to evacuate during Hurricane Harvey! I was here on business and never dreamed i would need to stay over a week!  The staff was very comforting and helpful during this stressful time. The hotel stayed high and dry!! I will always be thankful I found this place of refuge in a time of need. The staff was especially helpful, kind and caring! Antonette, Charles &amp; all the staff became our family! They all went beyond the call by staying on the premise around the clock so that all of the guests were taken care of. I have never seen a staff so dedicated in helping others!!  I GIVE THIS HOTEL 5++++ RATING!!More</t>
   </si>
   <si>
@@ -219,6 +258,45 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r491945873-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491945873</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Stay!</t>
+  </si>
+  <si>
+    <t>On June 7 we checked in after driving about eight hours. It was nice to see that the outer appearance of the hotel was clean and maintained. The front desk attendant, Antionette was very gracious and professional with her greeting. She promptly checked us in, gave breakfast instructions, and gave some tips about local areas to visit. Despite a long drive to get to Houston, Antionette's hospitality was on full display. Even the next morning when we checked out, she was she there greeting us with a smile, hoping that we had a good stay, and making sure that we had breakfast. It was not evident that she worked two shifts in the past 24 hours, it was only noted that she knew how to represent Comfort Suites. Thanks for the wonderful stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>On June 7 we checked in after driving about eight hours. It was nice to see that the outer appearance of the hotel was clean and maintained. The front desk attendant, Antionette was very gracious and professional with her greeting. She promptly checked us in, gave breakfast instructions, and gave some tips about local areas to visit. Despite a long drive to get to Houston, Antionette's hospitality was on full display. Even the next morning when we checked out, she was she there greeting us with a smile, hoping that we had a good stay, and making sure that we had breakfast. It was not evident that she worked two shifts in the past 24 hours, it was only noted that she knew how to represent Comfort Suites. Thanks for the wonderful stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r489244657-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489244657</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Abhishek Srivastava</t>
+  </si>
+  <si>
+    <t>Awesome Service.. Love the Room.. Courteous Staff. Special Thanks to Rahim Bhai for the Awesome Experience .. I will surely Stay again and recommend others. The breakfast spread was so nice, great variety</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r485255385-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -234,9 +312,6 @@
     <t>This hotel is reasonably priced but it does have to upgrade its breakfast.  This is a property that just puts out the minimum to say it serves a hot breakfast.  It had the standard scrambled eggs which are probably not real eggs and a ground meat patty which few people eat.  Biscuits &amp; gravy did not exist.  No bananas and no low fat yogurt.  In fact, there was NO yogurt.  The breakfast person needs to speak up to the manager when items are out.</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r468418936-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -282,7 +357,37 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r427994978-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427994978</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>It was okay</t>
+  </si>
+  <si>
+    <t>This hotel is in a decent area of Houston, and it was okay overall - pretty quiet for the most part.The bathroom in the room we stayed could use some updating and the breakfast didn't look very appealing...oh and the wi-fi didn't work very well at all, I ended up just using my cell phone data. If you're looking for somewhere reasonable to stay in the Houston area, then I would recommend it but if you want something a little more upscale then explore your options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r426943539-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426943539</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Weekend Trip</t>
+  </si>
+  <si>
+    <t>The staff was helpful and professional, the room was clean and nice.    The hotel was away from freeways and busier streets which made it a better and quieter location than many. Breakfast area was also well maintained and the food was good. Nice place to stay.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r426228930-Comfort_Suites_Westchase-Houston_Texas.html</t>
@@ -336,6 +441,39 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r404089905-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>404089905</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable Hotel</t>
+  </si>
+  <si>
+    <t>Location was great for me. Celebrating my aunts 90th birthaday. Very nice suite. Clean and comfortable. Basic breakfast. Antoinette was extremelly helpful and accomadating. Would definately stay when visiting again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r379374643-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379374643</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Stay !</t>
+  </si>
+  <si>
+    <t>My family and I took a weekend trip to Houston for Memorial Day. This is the only time we've all had a three day weekend off of work. I booked this hotel based off the great reviews on choicehotels.com. Our stay was phenomenal! The rooms are clean and spacious. The front desk staff and hotel manager were all a joy to encounter. There are endless amounts of shopping and restaurants within minutes of the hotel. I'd highly recommend this hotel for families or couples.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r365874393-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -387,6 +525,39 @@
     <t>The hotel and room was very clean and quiet. There is a Whole Foods right next door which was great. The only downside is its 15+ miles from the city center. I was there for the Final Four and had to use Uber to get around. Houston has terrible public transportation.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r353304540-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353304540</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Nothing special</t>
+  </si>
+  <si>
+    <t>I can here to spend the weekend with my family. The hotel was pretty clean and the bed was reasonably comfortable. Keep in mind that this is outside the beltway. Safety was the biggest concern and we did not feel safe in this area after dark. If you come in a night, they make you check in behind a bullet proof window. The iron in the room looked like it was older than me. The office chair in my room had a huge chunk taken out of the arm. If you want to feel safe, stay inside the beltway.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r333946212-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333946212</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t>Great motel</t>
+  </si>
+  <si>
+    <t>Very nice place to stay only about 30 minutes from the medical center. Much more reasonable than the motels around the medical center. The suites are clean,comfortable, and very nice, and the employees were very friendly and helpful. It has very good reviews which influenced our decision to stay there plus the less expensive rates.We will definitely stay there again if the need arises.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r304815618-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -444,6 +615,42 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r279972082-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279972082</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Fast Internet</t>
+  </si>
+  <si>
+    <t>Fast internet and easy to connect.  LOTS of outlet plugs on desk and night stands for devices.  Free breakfast with good selection.  Clean.  Wonderful staff. AND towels didn't smell sour like they do at most hotels.  I have stayed at very expensive hotels where the towels smell sour and it is one of my pet peeves.  Not here - these had no smell.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r273714767-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273714767</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Needs Improvement</t>
+  </si>
+  <si>
+    <t>We stayed here for a weekend and we really weren't impressed with this hotel, even though the price for our stay was good, the negatives really outweighed it. Check-in was slow even with only one person in front of us and we weren't acknowledged as a Choice Hotel Elite Member.  The photos for the exercise room for their website needs to be updated as there's no stationary bicycle.  They would be better served putting the exercise room somewhere else as the room they have it in is small and with the machines they have in there it's cramped. The room was clean and the beds were comfortable.  The Wi-Fi was spotty and kept dropping off.  It would be a wise investment to add some Access Control Points (ACP) to boost their signal/reception.  Breakfast was a disappointment.  When we checked in on Friday evening I saw there was yogurt in the refrigerator which was sufficient for Saturday but there was nothing for Sunday.  It also didn't offer much in the way of healthy food options.  Check-out was even worse than check-in.  I waited for nearly 10 minutes for someone to come to the front desk to check us out and this wasn't an isolated incident as a gentleman on Saturday had the same issue trying to check out.  It might help to hire more front desk staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for a weekend and we really weren't impressed with this hotel, even though the price for our stay was good, the negatives really outweighed it. Check-in was slow even with only one person in front of us and we weren't acknowledged as a Choice Hotel Elite Member.  The photos for the exercise room for their website needs to be updated as there's no stationary bicycle.  They would be better served putting the exercise room somewhere else as the room they have it in is small and with the machines they have in there it's cramped. The room was clean and the beds were comfortable.  The Wi-Fi was spotty and kept dropping off.  It would be a wise investment to add some Access Control Points (ACP) to boost their signal/reception.  Breakfast was a disappointment.  When we checked in on Friday evening I saw there was yogurt in the refrigerator which was sufficient for Saturday but there was nothing for Sunday.  It also didn't offer much in the way of healthy food options.  Check-out was even worse than check-in.  I waited for nearly 10 minutes for someone to come to the front desk to check us out and this wasn't an isolated incident as a gentleman on Saturday had the same issue trying to check out.  It might help to hire more front desk staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r271472876-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -480,9 +687,6 @@
     <t>There are fitness room and business room and laundry room.You can use most of all facilities about that kinds of amenity.There also are restauraunt nearby around that area.It takes around an hour and ～100USD from airport.Staffs were very friendly and kind.</t>
   </si>
   <si>
-    <t>January 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r256986130-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -504,6 +708,60 @@
     <t>First trip to Houston so not sure of exactly where to book. This hotel is 35 mins from the airport but ideally situated if you have business in the west side of the city.Room was clean, well maintained each day and in spite of other reviewers detrimental comments the wifi was fine, breakfast was unhurried and the front desk staff immaculate in their behaviour.Will stay here again because:Whole Foods market is 50 metres away offering a huge variety of great produce and has the added advantage ( for a solo business traveller) of a small bar/cafe area to eat in.Cantina Laredo is also 50 metres walking distance offering excellent service ( see separate revue) as well as great food and wines.Wifi was excellentParking was free and easyMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r214002883-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214002883</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great for the price </t>
+  </si>
+  <si>
+    <t>The hotel is in a great location for shopping &amp; eating. You can walk to several restaurants. Whole Foods is right outside the hotel entrance, which was a plus. The breakfast was decent with hot foods such as eggs, waffles &amp; sausage. The only downside is there is only 1 elevator for 3 floors &amp; the pool had a cold jacuzzi.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>siaram, General Manager at Comfort Suites Westchase, responded to this reviewResponded July 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location for shopping &amp; eating. You can walk to several restaurants. Whole Foods is right outside the hotel entrance, which was a plus. The breakfast was decent with hot foods such as eggs, waffles &amp; sausage. The only downside is there is only 1 elevator for 3 floors &amp; the pool had a cold jacuzzi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r211512345-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211512345</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Close to restaurants and major roads</t>
+  </si>
+  <si>
+    <t>This hotel is convenient for the area from downtown to the west end of Houston.  It is just a few blocks from Loop 8.  The hotel is very clean, quiet, and includes an excellent breakfast buffet.  There are many restaurants, from budget to fine dining.  Westheimer Rd is like a city in itself, offering a wide variety of businesses.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>siaram, Manager at Comfort Suites Westchase, responded to this reviewResponded June 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is convenient for the area from downtown to the west end of Houston.  It is just a few blocks from Loop 8.  The hotel is very clean, quiet, and includes an excellent breakfast buffet.  There are many restaurants, from budget to fine dining.  Westheimer Rd is like a city in itself, offering a wide variety of businesses.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r203197257-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -522,12 +780,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>siaram, Manager at Comfort Suites Westchase, responded to this reviewResponded June 28, 2014</t>
-  </si>
-  <si>
-    <t>Responded June 28, 2014</t>
-  </si>
-  <si>
     <t>As always, review &amp; rating are just for the room I stayed in, (#115) plus any other common areas..  Check-in was speedy and uneventful.  Hotel room was a suite style room with two queen beds and a twin sized couch (looked like a sleeper bed too).  Room was nice and about what to expect at this price point.  TV was flat panel, Internet was fine and overall the place seemed nice and clean.  Breakfast was typical continental affair with make your own waffles and sausage/eggs pre-made and served in a chrome warmer.  Again, typical for a hotel like this.  We picked a weekend that was not crowded, so parking was never a problem.  W did not try the little pool, but it looked nice as I drove by.More</t>
   </si>
   <si>
@@ -570,6 +822,60 @@
     <t>Liked the reviews posted here and have stayed at Comfort Suites before.(Relatives live nearby.)  Room was spacious, service good, breakfast the usual, not very busy. No compliants. In their publicity they mention Westheimer because that is very busy east/.west street and easy to find, but their address is on Wilcrest, north/south street. It might sound as if it is on the corner. Is not. Although in first block south on Wilcrest not very visible from Westheimer. About a half-mile from Sam Houston Parkway toll. Took me about an hour to get from hotel to airport on a Monday morning.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r182801928-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182801928</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Would have given more but two issues</t>
+  </si>
+  <si>
+    <t>I stayed here on a business trip and needed to connect to work.  Wireless was spotty on the 3rd floor at best, and the wired connection performed poorly compared to what I have at home.Breakfast was the standard fair, except that the eggs tasted powdery all three days.The room was standard for a comfort suite and aside from the two issues above I would have rated a five.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>siaram, Manager at Comfort Suites Westchase, responded to this reviewResponded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here on a business trip and needed to connect to work.  Wireless was spotty on the 3rd floor at best, and the wired connection performed poorly compared to what I have at home.Breakfast was the standard fair, except that the eggs tasted powdery all three days.The room was standard for a comfort suite and aside from the two issues above I would have rated a five.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r178849429-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178849429</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Nice but unexceptional</t>
+  </si>
+  <si>
+    <t>I usually stay at Marriott properties for business trips in Westchase area.  All Marriotts were fully booked for this week, so I ended up trying the Comfort Suites Westchase.  I had a very positive experience with a hotel in the Choice Hotels collection during recent Norway trip, and was interested to see how the Comfort Suites Westchase property would compare with the Residence Inn (Marriott).Overall, everything about the Comfort Suites Westchase is nice.  It has solid good ratings on everything; it's just that nothing stands out as exceptional.  The rooms were nice and large, but seemed a little worn.  The front desk staff was competent, but not outstanding.I would be willing to stay here again, but only if the Residence Inn (Marriott) is again fully booked.  I prefer The Residence Inn (Marriott) because of the better staff and the evening light dinner they offer.  By the way, there is a brand new Comfort Suites in the general area that had not yet opened when i stayed here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>siaram, General Manager at Comfort Suites Westchase, responded to this reviewResponded September 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2013</t>
+  </si>
+  <si>
+    <t>I usually stay at Marriott properties for business trips in Westchase area.  All Marriotts were fully booked for this week, so I ended up trying the Comfort Suites Westchase.  I had a very positive experience with a hotel in the Choice Hotels collection during recent Norway trip, and was interested to see how the Comfort Suites Westchase property would compare with the Residence Inn (Marriott).Overall, everything about the Comfort Suites Westchase is nice.  It has solid good ratings on everything; it's just that nothing stands out as exceptional.  The rooms were nice and large, but seemed a little worn.  The front desk staff was competent, but not outstanding.I would be willing to stay here again, but only if the Residence Inn (Marriott) is again fully booked.  I prefer The Residence Inn (Marriott) because of the better staff and the evening light dinner they offer.  By the way, there is a brand new Comfort Suites in the general area that had not yet opened when i stayed here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r169234844-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -588,12 +894,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>siaram, General Manager at Comfort Suites Westchase, responded to this reviewResponded September 29, 2013</t>
-  </si>
-  <si>
-    <t>Responded September 29, 2013</t>
-  </si>
-  <si>
     <t>I stayed for one night at this hotel for business travel.  Overall I was quite pleased with the Comfort Suites Westchase, especially compared to similar hotels I have frequented in the Westchase area.The room was nice, love the fridge, microwave and flat screen TV.  I got a good night's sleep and the wifi worked quite well.   The hotel was conveniently located near restaurants, stores, etc.    It was a disappointment that the breakfast was over at 9:00 am, would have been nice to be open longer for late sleepers.  I was traveling for business travel and was very frustrated when ironing my clothes.  There was a weird setup where the iron was corded and locked to the bottom of the ironing board which made it nearly impossible to iron part of my dress shirt or slacks.  Maybe they are having a lot of iron thieves staying at their hotel.  No, just weird.But I will stay at the hotel next time I am in this part of Houston.More</t>
   </si>
   <si>
@@ -627,6 +927,45 @@
     <t xml:space="preserve">Stayed here for one night.  Loved the spacious clean room.  It was equipped with microwave, fridge, love seat and flat screen hd tv guessing around 42".  Staff was very friendly.  Plenty of very nice restaurants near the hotel.  I strongly recommend this hotel, great value for the money.  Ive stayed at plenty of comfort hotels &amp; this would be one of the better ones Ive been at. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r166295109-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166295109</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>A wonderful place to stay</t>
+  </si>
+  <si>
+    <t>Every time I go to Houston I go to this hotel... the suites are extremely comfortable and so does the entire hotel. There is also a small pool and a free parking.  The hotel is somehow outside the greater Houston but it's very easy to go everywhere from the hotel because it is located between the two main city roads, the Westheimer and the Richmond. Just try it and you won't choose any other hotel in Houston!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r160015803-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160015803</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Blown away</t>
+  </si>
+  <si>
+    <t>I can not say enough good things about this place. I travel to Houston pretty often for business and usually stay somewhere different depending on the area of town. I had made a reservation at another hotel a few weeks ago and when I arrived late last Thursday night I realized my debit card had been lost. I went into the hotel to see what my options were.I was greeted by someone very rude and told my card had been declined and my reservation cancelled. IMPOSSIBLE! So when they wouldnt help me I went out to the car and looked up other hotels in the area. I called a few and no one had any vacancies.I called the Comfort suites and Heather answered the phone. She confirmed she had a few double rooms available and would let me pay cash!! Awesome. I discussed this with my boyfriend and decided to give it a shot. Not only did Heather come down on the price for us but she matched the rate from the other place. When we arrived she met us at the door and gave us EXCEPTIONAL customer service. She was a total gem! I will never stay anywhere else in Houston...even if I have to drive! When we walked into the room I was speechless. The rooms are HUGE!!! Very cozy. Satellity tv, fridge, and microwave. Both days we stayed were perfect! Great area as well. Very convenient to...I can not say enough good things about this place. I travel to Houston pretty often for business and usually stay somewhere different depending on the area of town. I had made a reservation at another hotel a few weeks ago and when I arrived late last Thursday night I realized my debit card had been lost. I went into the hotel to see what my options were.I was greeted by someone very rude and told my card had been declined and my reservation cancelled. IMPOSSIBLE! So when they wouldnt help me I went out to the car and looked up other hotels in the area. I called a few and no one had any vacancies.I called the Comfort suites and Heather answered the phone. She confirmed she had a few double rooms available and would let me pay cash!! Awesome. I discussed this with my boyfriend and decided to give it a shot. Not only did Heather come down on the price for us but she matched the rate from the other place. When we arrived she met us at the door and gave us EXCEPTIONAL customer service. She was a total gem! I will never stay anywhere else in Houston...even if I have to drive! When we walked into the room I was speechless. The rooms are HUGE!!! Very cozy. Satellity tv, fridge, and microwave. Both days we stayed were perfect! Great area as well. Very convenient to a ton of things. Great Job Heather!!! See you soon!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I can not say enough good things about this place. I travel to Houston pretty often for business and usually stay somewhere different depending on the area of town. I had made a reservation at another hotel a few weeks ago and when I arrived late last Thursday night I realized my debit card had been lost. I went into the hotel to see what my options were.I was greeted by someone very rude and told my card had been declined and my reservation cancelled. IMPOSSIBLE! So when they wouldnt help me I went out to the car and looked up other hotels in the area. I called a few and no one had any vacancies.I called the Comfort suites and Heather answered the phone. She confirmed she had a few double rooms available and would let me pay cash!! Awesome. I discussed this with my boyfriend and decided to give it a shot. Not only did Heather come down on the price for us but she matched the rate from the other place. When we arrived she met us at the door and gave us EXCEPTIONAL customer service. She was a total gem! I will never stay anywhere else in Houston...even if I have to drive! When we walked into the room I was speechless. The rooms are HUGE!!! Very cozy. Satellity tv, fridge, and microwave. Both days we stayed were perfect! Great area as well. Very convenient to...I can not say enough good things about this place. I travel to Houston pretty often for business and usually stay somewhere different depending on the area of town. I had made a reservation at another hotel a few weeks ago and when I arrived late last Thursday night I realized my debit card had been lost. I went into the hotel to see what my options were.I was greeted by someone very rude and told my card had been declined and my reservation cancelled. IMPOSSIBLE! So when they wouldnt help me I went out to the car and looked up other hotels in the area. I called a few and no one had any vacancies.I called the Comfort suites and Heather answered the phone. She confirmed she had a few double rooms available and would let me pay cash!! Awesome. I discussed this with my boyfriend and decided to give it a shot. Not only did Heather come down on the price for us but she matched the rate from the other place. When we arrived she met us at the door and gave us EXCEPTIONAL customer service. She was a total gem! I will never stay anywhere else in Houston...even if I have to drive! When we walked into the room I was speechless. The rooms are HUGE!!! Very cozy. Satellity tv, fridge, and microwave. Both days we stayed were perfect! Great area as well. Very convenient to a ton of things. Great Job Heather!!! See you soon!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r154388154-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -681,6 +1020,39 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r138600673-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138600673</t>
+  </si>
+  <si>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>I love this hotel because it is relatively close to everything I normally do in Houston.  There is free wifi and breakfast and there is plenty of stores and restaurants near by.  It is close to I-10 and the Beltway plus Katy Mills and Memorial City Mall.  I've stayed here several times and I can say that I have had no problems.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r132563781-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132563781</t>
+  </si>
+  <si>
+    <t>06/22/2012</t>
+  </si>
+  <si>
+    <t>Summer 11'</t>
+  </si>
+  <si>
+    <t>Thought I'd put in my two cents. Used to stay here under my Choice Hotels discount, but now I work for Hilton. I don't recall having any problems with this place! Security was on site. Lots of restaurants/shopping centers nearby. Rooms were clean, hallways were quiet. Staff was kind/helpful, they gave me late check-outs. Parking wasn't a disaster. Lobby was beautiful. What more could you ask for? During the time that I worked for Choice Hotels, Comfort Suites was one of my most preferred next to Clarion Suites. I liked the place.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r131135627-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -732,6 +1104,45 @@
     <t>Was looking for a suite hotel (with fridge and microwave so that I could refrigerate food and heat up as needed) close to the Westpark area - and this one was the closest. It was like a 10 min drive to the venue of my seminar, but that was ok. Breakfast was pretty good. The hotel was fairly busy, as each morning the small breakfast area could get crowded with guests. Suggest you shoot for breakfast earlier rather than later if you've got to be somewhere for a certain time. The room was quite comfortable and no issues. Complimentary internet - always a plus to stay in touch with work / family. I would stay again. It's just off Westheimer, so access to shops and restaurants is great. Needless to say rush hour is quite crowded.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r116029166-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116029166</t>
+  </si>
+  <si>
+    <t>07/30/2011</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>My nephew &amp; I traveled with my husband on a business trip.  We stayed at this comfort suites because of the positive reviews and because of the convience of the location.  It seems that during the week , mainly businessmen stay here.  However, there is currently a 69.95/nite special and this attracts families on a budget on weekends.  The hotel is nice.  It does seem to be overpriced in comparison to similar hotel chains.  Since it is located in the westchase business district, it is priced accordingly. There are alot of resturants in the area and a shopping area including a grocery store across the street. Breakfast was fair.  Some days better than others.  Not much left over on weekends if you aren"t an early bird. The pool is very small and the whirlpool didn't work.The hotel staff is exceptional.  Antoinette is especially helpful, knowlegable and polite.  She makes you feel like she has always known you. Overall, we would stay here again...MoreShow less</t>
+  </si>
+  <si>
+    <t>My nephew &amp; I traveled with my husband on a business trip.  We stayed at this comfort suites because of the positive reviews and because of the convience of the location.  It seems that during the week , mainly businessmen stay here.  However, there is currently a 69.95/nite special and this attracts families on a budget on weekends.  The hotel is nice.  It does seem to be overpriced in comparison to similar hotel chains.  Since it is located in the westchase business district, it is priced accordingly. There are alot of resturants in the area and a shopping area including a grocery store across the street. Breakfast was fair.  Some days better than others.  Not much left over on weekends if you aren"t an early bird. The pool is very small and the whirlpool didn't work.The hotel staff is exceptional.  Antoinette is especially helpful, knowlegable and polite.  She makes you feel like she has always known you. Overall, we would stay here again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r84916211-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>84916211</t>
+  </si>
+  <si>
+    <t>10/26/2010</t>
+  </si>
+  <si>
+    <t>Very bad A/C system in the room</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for a few nights, there were good and bad points.Good points:* Location is very convenient for west of Houston. Many restaurants and 2 supermarkets are within walking distance.* Lobby and hallway are spaciousBad points:* Room was small for a suite, no separate living area, only a nook with a small loveseat* Breakfast was skimpy, by 8 am yogurts and muffins were gone* Noises could be heard from rooms above, next door, in the hallway and outside. We tried to turn Fan on continuously at night to provide white noise and cover up the other noises but the A/C system was rigged that if the Fan was at ON instead of AUTO, the A/C is off. Houston in October is still hot enough to need A/C. So we either suffered the heat with Fan on and no A/C,  or suffered the noises and the stuffiness when A/C was on with the fan running and stopping intermittently.We complained to the manager and were told that all rooms in the hotel have the same system.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for a few nights, there were good and bad points.Good points:* Location is very convenient for west of Houston. Many restaurants and 2 supermarkets are within walking distance.* Lobby and hallway are spaciousBad points:* Room was small for a suite, no separate living area, only a nook with a small loveseat* Breakfast was skimpy, by 8 am yogurts and muffins were gone* Noises could be heard from rooms above, next door, in the hallway and outside. We tried to turn Fan on continuously at night to provide white noise and cover up the other noises but the A/C system was rigged that if the Fan was at ON instead of AUTO, the A/C is off. Houston in October is still hot enough to need A/C. So we either suffered the heat with Fan on and no A/C,  or suffered the noises and the stuffiness when A/C was on with the fan running and stopping intermittently.We complained to the manager and were told that all rooms in the hotel have the same system.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r75176268-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -789,6 +1200,48 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r33260752-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>33260752</t>
+  </si>
+  <si>
+    <t>06/26/2009</t>
+  </si>
+  <si>
+    <t>Comfortable, convenient</t>
+  </si>
+  <si>
+    <t>I stayed here for a week-long business trip. I'm not a frequent traveller so I'm not sure how these booking work, but after I booked online I called to confirm some minor detail and got a further discount.The rooms are large, with new, clean furniture. AC in working order as well. They've got some digital alarm clock/radio that you can plug your mp3 player into so you don't need to use headphones in the room. The complimentary business centre, plus free wi-fi, were a big plus.The fitness centre (spare room with a few old machines) is very crowded and barely adequate. The pool is small and in view of the main road.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>I stayed here for a week-long business trip. I'm not a frequent traveller so I'm not sure how these booking work, but after I booked online I called to confirm some minor detail and got a further discount.The rooms are large, with new, clean furniture. AC in working order as well. They've got some digital alarm clock/radio that you can plug your mp3 player into so you don't need to use headphones in the room. The complimentary business centre, plus free wi-fi, were a big plus.The fitness centre (spare room with a few old machines) is very crowded and barely adequate. The pool is small and in view of the main road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r26413589-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26413589</t>
+  </si>
+  <si>
+    <t>03/18/2009</t>
+  </si>
+  <si>
+    <t>Clean, quiet, great value!  Note the 24 hr cancellation policy.</t>
+  </si>
+  <si>
+    <t>I made a reservation at this hotel, using hotel points for a short weekend trip that I later decided to cancel.  Unfortunately, I did not call in time, according to their 24 hour cancellation policy.  Even though I was using points, the manager would not authorize the cancellation, so beware of this - it doesn't seem like they make any exceptions.  I was a bit annoyed, but in the end it was my own fault for not calling in time.  Anyway, to avoid losing my points, we decided to keep the reservation and take the short weekend trip after all (it wasn't that far of a drive for us).  I LOVED the hotel.  It's not at all what you would expect from a Comfort Suites - I tend to think of these hotels as lower price and therefore lower quality.  But this hotel was great.  Our room was spacious and clean, everything was brand new, and the beds were so comfortable.  Parking &amp; breakfast are included, there is no restaurant or room service but this did not bother me.  I would definitely stay here if I'm in the Houston area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I made a reservation at this hotel, using hotel points for a short weekend trip that I later decided to cancel.  Unfortunately, I did not call in time, according to their 24 hour cancellation policy.  Even though I was using points, the manager would not authorize the cancellation, so beware of this - it doesn't seem like they make any exceptions.  I was a bit annoyed, but in the end it was my own fault for not calling in time.  Anyway, to avoid losing my points, we decided to keep the reservation and take the short weekend trip after all (it wasn't that far of a drive for us).  I LOVED the hotel.  It's not at all what you would expect from a Comfort Suites - I tend to think of these hotels as lower price and therefore lower quality.  But this hotel was great.  Our room was spacious and clean, everything was brand new, and the beds were so comfortable.  Parking &amp; breakfast are included, there is no restaurant or room service but this did not bother me.  I would definitely stay here if I'm in the Houston area again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r22370620-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -849,6 +1302,50 @@
     <t>July 2007</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r6926530-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6926530</t>
+  </si>
+  <si>
+    <t>03/06/2007</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>We needed a suite because of the young children, and found this to be quite comfortable, as well as reasonably priced.  There is hot, complementary breakfast every morning (not the best one we've had but quite reasonable).  The suite itself is clean and we were quite satisfied.  It is equipped with a microwave and mini-frig.  Not a full size kitchen but enough to meet our needs.</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r6737856-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6737856</t>
+  </si>
+  <si>
+    <t>02/02/2007</t>
+  </si>
+  <si>
+    <t>Not what I expected at all - and then there's more...</t>
+  </si>
+  <si>
+    <t>The Comfort Suites in the Westchase area is at the end of a strip mall in a very business-focused area (lots of mirrored, repetitively-built office parks in Westchase, which I see as being a lower cost part of Houston and far from everything else in Houston).  
+I begin by writing I have stayed in every type of hotel or motel imaginable and am not a "hotel snob"....my work takes me various places around the country and to Europe and in some places I have no real choices.  In Houston, I did. I also believe that if one must travel often, one should have a pleasant sleep with pleasant surroundings. This was not the case for me at the Comfort Suites.
+To be frank, I am unclear how this hotel is ranked in the Top #40 (#30 as of this date) of all hotels in Houston.  I chose this hotel due to its reviews and ranking as I was unfamiliar with this part of Houston (Westchase). 
+The hotel lobby is spacious with the usual sitting area, etc. The staff are very kind and helpful and the breakfasts are the usual "waffles in a cup, boiled eggs, juice and coffee."  The business center was an added plus as I did not bring my laptop for this short trip. The bathrooms were stocked with plenty of towels. 
+That said, the room I had was spacious but extremely plain and rather "mish-mosh" in design,...The Comfort Suites in the Westchase area is at the end of a strip mall in a very business-focused area (lots of mirrored, repetitively-built office parks in Westchase, which I see as being a lower cost part of Houston and far from everything else in Houston).  I begin by writing I have stayed in every type of hotel or motel imaginable and am not a "hotel snob"....my work takes me various places around the country and to Europe and in some places I have no real choices.  In Houston, I did. I also believe that if one must travel often, one should have a pleasant sleep with pleasant surroundings. This was not the case for me at the Comfort Suites.To be frank, I am unclear how this hotel is ranked in the Top #40 (#30 as of this date) of all hotels in Houston.  I chose this hotel due to its reviews and ranking as I was unfamiliar with this part of Houston (Westchase). The hotel lobby is spacious with the usual sitting area, etc. The staff are very kind and helpful and the breakfasts are the usual "waffles in a cup, boiled eggs, juice and coffee."  The business center was an added plus as I did not bring my laptop for this short trip. The bathrooms were stocked with plenty of towels. That said, the room I had was spacious but extremely plain and rather "mish-mosh" in design, as if the furniture was bought at a liquidation sale and thrown together. I would not have even considered sitting in the area with the little mini-sofa (scratchy upholstery) and table that makes these room "Suites" instead of a regular "Comfort Inn". This area was a non-entity. Besides, of the five lamps in my room, only three worked, and not the one in the &lt;ahem&gt; sitting area.The room also had the oddest odor, which was noticeable as soon as I opened the door. I don't know if it had anything to do with all the rain that Houston had been getting in the prior weeks, but being on the 2nd floor I doubt it and it was not a musty smell. Also, along with many other "budget" hotels, this Comfort Suites has sadly replaced good lighting with the cheapest possible blue-tinted irridescent "stick" bulbs. They give off the most horrific light. The bed was firm but the sheets, blanket and pillows were of poor quality.  The weather outside was around 50 degrees and rainy....but the room seemed to have no "air quality" so I turned on the A/C to "clear the air". I also like to sleep with the room temp. quite cool. The A/C gave out and blew only warmish air and rattled, so I turned it off and endured the odor and the stuffiness. Needless to say, I moved to another hotel (a Doubletree) the next night. (I was to have stayed at this Comfort Suites for two nights total.)In Westchase, there are many other hotels to choose from and I have to say I would look elsewhere, like the Holiday Inn Express or other chain hotel around the corner if you are on a budget. Truly, this is an odd area in Houston, and I would go further to say it is off the "beaten path" of Westchase.On a complete side note, don't stay in Westchase unless you have to due to business....stay by the Galleria or downtown.  Westchase has some great restaurants and hotels, but the area is a bit seedy and it is like you died and went to strip mall purgatory with the ugly facades and the oddest conglomeration of rental planning. It is as if the realtors/owners have given up on Westchase and are taking whatever they can get to occupy the empty spaces.  In the strip mall next to the Comfort Suites, you have a great Whole Foods Market and a great but tiny Thai restaurant and then a deeply discounted bookstore where shady characters hung around, and then two types of "spas", one of which is not at all where a lady would go to have a facial or massage if you get my meaning. You get this info from a quick internet search. There were more than a few shady characters at night hanging around checking out cars in parking lots near this Comfort Suites as the area is not heavily traveled at night. I am from a large city myself and have seen it all, but this was too much for a woman traveling alone on business.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Comfort Suites in the Westchase area is at the end of a strip mall in a very business-focused area (lots of mirrored, repetitively-built office parks in Westchase, which I see as being a lower cost part of Houston and far from everything else in Houston).  
+I begin by writing I have stayed in every type of hotel or motel imaginable and am not a "hotel snob"....my work takes me various places around the country and to Europe and in some places I have no real choices.  In Houston, I did. I also believe that if one must travel often, one should have a pleasant sleep with pleasant surroundings. This was not the case for me at the Comfort Suites.
+To be frank, I am unclear how this hotel is ranked in the Top #40 (#30 as of this date) of all hotels in Houston.  I chose this hotel due to its reviews and ranking as I was unfamiliar with this part of Houston (Westchase). 
+The hotel lobby is spacious with the usual sitting area, etc. The staff are very kind and helpful and the breakfasts are the usual "waffles in a cup, boiled eggs, juice and coffee."  The business center was an added plus as I did not bring my laptop for this short trip. The bathrooms were stocked with plenty of towels. 
+That said, the room I had was spacious but extremely plain and rather "mish-mosh" in design,...The Comfort Suites in the Westchase area is at the end of a strip mall in a very business-focused area (lots of mirrored, repetitively-built office parks in Westchase, which I see as being a lower cost part of Houston and far from everything else in Houston).  I begin by writing I have stayed in every type of hotel or motel imaginable and am not a "hotel snob"....my work takes me various places around the country and to Europe and in some places I have no real choices.  In Houston, I did. I also believe that if one must travel often, one should have a pleasant sleep with pleasant surroundings. This was not the case for me at the Comfort Suites.To be frank, I am unclear how this hotel is ranked in the Top #40 (#30 as of this date) of all hotels in Houston.  I chose this hotel due to its reviews and ranking as I was unfamiliar with this part of Houston (Westchase). The hotel lobby is spacious with the usual sitting area, etc. The staff are very kind and helpful and the breakfasts are the usual "waffles in a cup, boiled eggs, juice and coffee."  The business center was an added plus as I did not bring my laptop for this short trip. The bathrooms were stocked with plenty of towels. That said, the room I had was spacious but extremely plain and rather "mish-mosh" in design, as if the furniture was bought at a liquidation sale and thrown together. I would not have even considered sitting in the area with the little mini-sofa (scratchy upholstery) and table that makes these room "Suites" instead of a regular "Comfort Inn". This area was a non-entity. Besides, of the five lamps in my room, only three worked, and not the one in the &lt;ahem&gt; sitting area.The room also had the oddest odor, which was noticeable as soon as I opened the door. I don't know if it had anything to do with all the rain that Houston had been getting in the prior weeks, but being on the 2nd floor I doubt it and it was not a musty smell. Also, along with many other "budget" hotels, this Comfort Suites has sadly replaced good lighting with the cheapest possible blue-tinted irridescent "stick" bulbs. They give off the most horrific light. The bed was firm but the sheets, blanket and pillows were of poor quality.  The weather outside was around 50 degrees and rainy....but the room seemed to have no "air quality" so I turned on the A/C to "clear the air". I also like to sleep with the room temp. quite cool. The A/C gave out and blew only warmish air and rattled, so I turned it off and endured the odor and the stuffiness. Needless to say, I moved to another hotel (a Doubletree) the next night. (I was to have stayed at this Comfort Suites for two nights total.)In Westchase, there are many other hotels to choose from and I have to say I would look elsewhere, like the Holiday Inn Express or other chain hotel around the corner if you are on a budget. Truly, this is an odd area in Houston, and I would go further to say it is off the "beaten path" of Westchase.On a complete side note, don't stay in Westchase unless you have to due to business....stay by the Galleria or downtown.  Westchase has some great restaurants and hotels, but the area is a bit seedy and it is like you died and went to strip mall purgatory with the ugly facades and the oddest conglomeration of rental planning. It is as if the realtors/owners have given up on Westchase and are taking whatever they can get to occupy the empty spaces.  In the strip mall next to the Comfort Suites, you have a great Whole Foods Market and a great but tiny Thai restaurant and then a deeply discounted bookstore where shady characters hung around, and then two types of "spas", one of which is not at all where a lady would go to have a facial or massage if you get my meaning. You get this info from a quick internet search. There were more than a few shady characters at night hanging around checking out cars in parking lots near this Comfort Suites as the area is not heavily traveled at night. I am from a large city myself and have seen it all, but this was too much for a woman traveling alone on business.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r5436386-Comfort_Suites_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -895,6 +1392,24 @@
   </si>
   <si>
     <t>Upon arrival, we were instantly impressed with the location (close to markets, retail and Starbucks!) and outside appearance (grounds).  The interior of the hotel is clean and well appointed.  We were instantly impressed with our room, which consisted of 2 double (queen? not sure) beds, a pullout sleeper (loveseat), a microwave and fridge.  Housekeeping personnel were friendly and accomodating when I asked for extra towels in the AM.  No complaints about the complete complementary b'fast.  The attendant kept the area clean and stocked.  Would certainly stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223141-r4465886-Comfort_Suites_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4465886</t>
+  </si>
+  <si>
+    <t>02/15/2006</t>
+  </si>
+  <si>
+    <t>Clean, Good Employees, Free Internet, Business Hotel</t>
+  </si>
+  <si>
+    <t>I stay at the comfort suites 4-5 mights a month and am very pleased with the service and amentities for a business grade hotel.  There are 3-4 restaurants within walking distance, as well as a number of stores.</t>
+  </si>
+  <si>
+    <t>February 2006</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1944,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1438,16 +1953,16 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1455,7 +1970,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1471,54 +1986,48 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1555,22 +2064,22 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -1581,7 +2090,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1597,7 +2106,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1606,35 +2115,37 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1642,7 +2153,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1658,7 +2169,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1667,43 +2178,45 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>79</v>
-      </c>
-      <c r="X6" t="s">
-        <v>80</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1719,41 +2232,47 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1776,54 +2295,48 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>92</v>
-      </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -1839,48 +2352,52 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>94</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>95</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>97</v>
       </c>
-      <c r="L9" t="s">
-        <v>98</v>
-      </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
-      <c r="P9" t="s"/>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -1896,52 +2413,52 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>101</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>102</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>103</v>
-      </c>
-      <c r="L10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>105</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -1957,7 +2474,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1966,22 +2483,22 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
         <v>60</v>
@@ -1998,7 +2515,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -2014,46 +2531,44 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>112</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>113</v>
-      </c>
-      <c r="J12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2061,7 +2576,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -2077,7 +2592,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2086,39 +2601,45 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -2134,7 +2655,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2143,28 +2664,30 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="n">
         <v>5</v>
@@ -2216,7 +2739,7 @@
         <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
         <v>134</v>
@@ -2224,25 +2747,19 @@
       <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -2258,48 +2775,52 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>136</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>137</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>138</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>139</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>140</v>
       </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>141</v>
-      </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
@@ -2315,46 +2836,46 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>142</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>143</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>144</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>145</v>
       </c>
-      <c r="L17" t="s">
-        <v>146</v>
-      </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2362,7 +2883,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2378,46 +2899,46 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
         <v>149</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>150</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>151</v>
       </c>
-      <c r="K18" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" t="s">
-        <v>153</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>154</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2425,7 +2946,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -2441,54 +2962,48 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
         <v>155</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>156</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>157</v>
       </c>
-      <c r="K19" t="s">
-        <v>158</v>
-      </c>
-      <c r="L19" t="s">
-        <v>159</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>160</v>
-      </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -2504,62 +3019,54 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
         <v>162</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
         <v>163</v>
       </c>
-      <c r="J20" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>167</v>
-      </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>168</v>
-      </c>
-      <c r="X20" t="s">
-        <v>169</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
@@ -2575,7 +3082,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2584,53 +3091,39 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>177</v>
-      </c>
-      <c r="X21" t="s">
-        <v>178</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
@@ -2646,7 +3139,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2655,49 +3148,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
         <v>173</v>
       </c>
-      <c r="K22" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" t="s">
-        <v>183</v>
-      </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
@@ -2713,7 +3196,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2722,53 +3205,35 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>189</v>
-      </c>
-      <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>190</v>
-      </c>
-      <c r="X23" t="s">
-        <v>191</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
@@ -2784,7 +3249,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2793,37 +3258,31 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -2832,14 +3291,10 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>190</v>
-      </c>
-      <c r="X24" t="s">
-        <v>191</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
@@ -2855,7 +3310,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2864,39 +3319,45 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="J25" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
       </c>
-      <c r="P25" t="s"/>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
@@ -2912,7 +3373,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2921,49 +3382,39 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
@@ -2979,7 +3430,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2988,41 +3439,35 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3030,7 +3475,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
@@ -3046,7 +3491,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3055,41 +3500,35 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3097,7 +3536,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
@@ -3113,7 +3552,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3122,33 +3561,33 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+      <c r="N29" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3160,7 +3599,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30">
@@ -3176,7 +3615,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3185,34 +3624,34 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J30" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K30" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>209</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
         <v>4</v>
       </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>4</v>
@@ -3223,7 +3662,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31">
@@ -3239,7 +3678,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3248,22 +3687,22 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
@@ -3271,18 +3710,14 @@
       <c r="P31" t="n">
         <v>4</v>
       </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
         <v>4</v>
       </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3290,7 +3725,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32">
@@ -3306,58 +3741,52 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" t="s">
+        <v>233</v>
+      </c>
+      <c r="L32" t="s">
+        <v>234</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>235</v>
+      </c>
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>236</v>
+      </c>
+      <c r="X32" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y32" t="s">
         <v>238</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>239</v>
-      </c>
-      <c r="J32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K32" t="s">
-        <v>241</v>
-      </c>
-      <c r="L32" t="s">
-        <v>242</v>
-      </c>
-      <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s">
-        <v>243</v>
-      </c>
-      <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
-      <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3802,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3382,49 +3811,53 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J33" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K33" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L33" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O33" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>245</v>
+      </c>
+      <c r="X33" t="s">
+        <v>246</v>
+      </c>
       <c r="Y33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
@@ -3440,48 +3873,62 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>249</v>
+      </c>
+      <c r="J34" t="s">
+        <v>250</v>
+      </c>
+      <c r="K34" t="s">
         <v>251</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>252</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
         <v>253</v>
       </c>
-      <c r="K34" t="s">
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>245</v>
+      </c>
+      <c r="X34" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y34" t="s">
         <v>254</v>
-      </c>
-      <c r="L34" t="s">
-        <v>255</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>256</v>
-      </c>
-      <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
-      <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="35">
@@ -3497,37 +3944,37 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35" t="s">
         <v>257</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>258</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>259</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
         <v>260</v>
-      </c>
-      <c r="L35" t="s">
-        <v>261</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>262</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
         <v>5</v>
@@ -3540,13 +3987,17 @@
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>261</v>
+      </c>
+      <c r="X35" t="s">
+        <v>262</v>
+      </c>
       <c r="Y35" t="s">
         <v>263</v>
       </c>
@@ -3576,38 +4027,38 @@
         <v>265</v>
       </c>
       <c r="J36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" t="s">
         <v>266</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>267</v>
       </c>
-      <c r="L36" t="s">
-        <v>268</v>
-      </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
         <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3615,7 +4066,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
@@ -3631,52 +4082,62 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J37" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" t="s">
         <v>271</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>272</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
         <v>273</v>
-      </c>
-      <c r="K37" t="s">
-        <v>274</v>
-      </c>
-      <c r="L37" t="s">
-        <v>275</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s">
-        <v>276</v>
       </c>
       <c r="O37" t="s">
         <v>53</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>274</v>
+      </c>
+      <c r="X37" t="s">
+        <v>275</v>
+      </c>
       <c r="Y37" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38">
@@ -3713,31 +4174,41 @@
         <v>281</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>282</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>283</v>
+      </c>
+      <c r="X38" t="s">
+        <v>284</v>
+      </c>
       <c r="Y38" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39">
@@ -3753,7 +4224,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3762,29 +4233,35 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J39" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
+      <c r="N39" t="s">
+        <v>291</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
       <c r="S39" t="n">
         <v>3</v>
       </c>
@@ -3795,10 +4272,14 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>283</v>
+      </c>
+      <c r="X39" t="s">
+        <v>284</v>
+      </c>
       <c r="Y39" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40">
@@ -3814,40 +4295,46 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>294</v>
+      </c>
+      <c r="J40" t="s">
         <v>288</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
-        <v>289</v>
-      </c>
-      <c r="J40" t="s">
-        <v>290</v>
-      </c>
       <c r="K40" t="s">
+        <v>295</v>
+      </c>
+      <c r="L40" t="s">
+        <v>296</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
         <v>291</v>
       </c>
-      <c r="L40" t="s">
-        <v>292</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -3856,10 +4343,1751 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>283</v>
+      </c>
+      <c r="X40" t="s">
+        <v>284</v>
+      </c>
       <c r="Y40" t="s">
-        <v>292</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>299</v>
+      </c>
+      <c r="J41" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" t="s">
+        <v>301</v>
+      </c>
+      <c r="L41" t="s">
+        <v>302</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>291</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>304</v>
+      </c>
+      <c r="J42" t="s">
+        <v>305</v>
+      </c>
+      <c r="K42" t="s">
+        <v>306</v>
+      </c>
+      <c r="L42" t="s">
+        <v>307</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>308</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>310</v>
+      </c>
+      <c r="J43" t="s">
+        <v>311</v>
+      </c>
+      <c r="K43" t="s">
+        <v>312</v>
+      </c>
+      <c r="L43" t="s">
+        <v>313</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>314</v>
+      </c>
+      <c r="O43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>316</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" t="s">
+        <v>318</v>
+      </c>
+      <c r="K44" t="s">
+        <v>319</v>
+      </c>
+      <c r="L44" t="s">
+        <v>320</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>321</v>
+      </c>
+      <c r="O44" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>322</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>323</v>
+      </c>
+      <c r="J45" t="s">
+        <v>324</v>
+      </c>
+      <c r="K45" t="s">
+        <v>325</v>
+      </c>
+      <c r="L45" t="s">
+        <v>326</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>327</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J46" t="s">
+        <v>330</v>
+      </c>
+      <c r="K46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L46" t="s">
+        <v>332</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>333</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>334</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>335</v>
+      </c>
+      <c r="J47" t="s">
+        <v>336</v>
+      </c>
+      <c r="K47" t="s">
+        <v>337</v>
+      </c>
+      <c r="L47" t="s">
+        <v>338</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>308</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>340</v>
+      </c>
+      <c r="J48" t="s">
+        <v>341</v>
+      </c>
+      <c r="K48" t="s">
+        <v>342</v>
+      </c>
+      <c r="L48" t="s">
+        <v>343</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>344</v>
+      </c>
+      <c r="O48" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>345</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" t="s">
+        <v>348</v>
+      </c>
+      <c r="L49" t="s">
+        <v>349</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>351</v>
+      </c>
+      <c r="J50" t="s">
+        <v>352</v>
+      </c>
+      <c r="K50" t="s">
+        <v>353</v>
+      </c>
+      <c r="L50" t="s">
+        <v>354</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>355</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>356</v>
+      </c>
+      <c r="J51" t="s">
+        <v>357</v>
+      </c>
+      <c r="K51" t="s">
+        <v>358</v>
+      </c>
+      <c r="L51" t="s">
+        <v>359</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>360</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>362</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>363</v>
+      </c>
+      <c r="J52" t="s">
+        <v>364</v>
+      </c>
+      <c r="K52" t="s">
+        <v>365</v>
+      </c>
+      <c r="L52" t="s">
+        <v>366</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>344</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>368</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>369</v>
+      </c>
+      <c r="J53" t="s">
+        <v>370</v>
+      </c>
+      <c r="K53" t="s">
+        <v>371</v>
+      </c>
+      <c r="L53" t="s">
+        <v>372</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>373</v>
+      </c>
+      <c r="O53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>375</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>376</v>
+      </c>
+      <c r="J54" t="s">
+        <v>377</v>
+      </c>
+      <c r="K54" t="s">
+        <v>378</v>
+      </c>
+      <c r="L54" t="s">
+        <v>379</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>380</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>382</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>383</v>
+      </c>
+      <c r="J55" t="s">
+        <v>384</v>
+      </c>
+      <c r="K55" t="s">
+        <v>385</v>
+      </c>
+      <c r="L55" t="s">
+        <v>386</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>387</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>389</v>
+      </c>
+      <c r="J56" t="s">
+        <v>390</v>
+      </c>
+      <c r="K56" t="s">
+        <v>391</v>
+      </c>
+      <c r="L56" t="s">
+        <v>392</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>393</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>394</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>395</v>
+      </c>
+      <c r="J57" t="s">
+        <v>396</v>
+      </c>
+      <c r="K57" t="s">
+        <v>397</v>
+      </c>
+      <c r="L57" t="s">
+        <v>398</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>399</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>401</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>402</v>
+      </c>
+      <c r="J58" t="s">
+        <v>403</v>
+      </c>
+      <c r="K58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>406</v>
+      </c>
+      <c r="O58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>408</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>409</v>
+      </c>
+      <c r="J59" t="s">
+        <v>410</v>
+      </c>
+      <c r="K59" t="s">
+        <v>411</v>
+      </c>
+      <c r="L59" t="s">
+        <v>412</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>413</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>415</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>416</v>
+      </c>
+      <c r="J60" t="s">
+        <v>417</v>
+      </c>
+      <c r="K60" t="s">
+        <v>418</v>
+      </c>
+      <c r="L60" t="s">
+        <v>419</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>420</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>422</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>423</v>
+      </c>
+      <c r="J61" t="s">
+        <v>424</v>
+      </c>
+      <c r="K61" t="s">
+        <v>425</v>
+      </c>
+      <c r="L61" t="s">
+        <v>426</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>427</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>428</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>429</v>
+      </c>
+      <c r="J62" t="s">
+        <v>430</v>
+      </c>
+      <c r="K62" t="s">
+        <v>431</v>
+      </c>
+      <c r="L62" t="s">
+        <v>432</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>433</v>
+      </c>
+      <c r="O62" t="s">
+        <v>73</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>434</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>435</v>
+      </c>
+      <c r="J63" t="s">
+        <v>436</v>
+      </c>
+      <c r="K63" t="s">
+        <v>437</v>
+      </c>
+      <c r="L63" t="s">
+        <v>438</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>440</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>441</v>
+      </c>
+      <c r="J64" t="s">
+        <v>442</v>
+      </c>
+      <c r="K64" t="s">
+        <v>443</v>
+      </c>
+      <c r="L64" t="s">
+        <v>444</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>446</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>447</v>
+      </c>
+      <c r="J65" t="s">
+        <v>448</v>
+      </c>
+      <c r="K65" t="s">
+        <v>449</v>
+      </c>
+      <c r="L65" t="s">
+        <v>450</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>451</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>452</v>
+      </c>
+      <c r="J66" t="s">
+        <v>453</v>
+      </c>
+      <c r="K66" t="s">
+        <v>454</v>
+      </c>
+      <c r="L66" t="s">
+        <v>455</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>456</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>457</v>
+      </c>
+      <c r="J67" t="s">
+        <v>458</v>
+      </c>
+      <c r="K67" t="s">
+        <v>459</v>
+      </c>
+      <c r="L67" t="s">
+        <v>460</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>461</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
